--- a/TIMES-NZ/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-NZ/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -499,7 +499,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>FOL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -542,7 +542,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DSL</t>
+          <t>JET</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FOL</t>
+          <t>OTH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JET</t>
+          <t>COA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -660,6 +660,11 @@
           <t>SI</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -671,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -714,7 +719,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -762,7 +767,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>DID</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -794,11 +799,6 @@
           <t>SI</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DID</t>
+          <t>DIJ</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -853,7 +853,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DIJ</t>
+          <t>LPG</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -896,7 +896,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LPG</t>
+          <t>DSL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">

--- a/TIMES-NZ/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-NZ/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Bi" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Uni" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Unilateral" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Bilateral" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,59 +418,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>~TradeLinks</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>UnilateralLPGTrade</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Declares LPG trade from NI -&gt; SI</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELC</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SI</t>
+          <t>~TradeLinks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>LPG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>NI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>SI</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -481,462 +495,138 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>~TradeLinks</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>BilateralCoalTrade</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Declares Coal trade between NI/SI</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PET</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SI</t>
+          <t>~TradeLinks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>COA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>NI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>SI</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>~TradeLinks</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DSL</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SI</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BilateralElectricityTrade</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Declares Electricity trade (HVDC) between NI/SI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>~TradeLinks</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>ELC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>SI</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>~TradeLinks</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FOL</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>SI</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>~TradeLinks</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>JET</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>~TradeLinks</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>OTH</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>~TradeLinks</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>~TradeLinks</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>COL</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>~TradeLinks</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>DID</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>~TradeLinks</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>DIJ</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>~TradeLinks</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>LPG</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v/>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v/>
-      </c>
-      <c r="C49" t="n">
-        <v/>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
